--- a/3월 18일 주제 회의.xlsx
+++ b/3월 18일 주제 회의.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\유서영 취준\JAVA\TheBoxer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D35D34-53E5-43E1-9D3C-8B4D8A4D0917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E96A38-B646-49C6-9A72-321D6C3DC614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13980" yWindow="0" windowWidth="14820" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -266,115 +266,55 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -505,16 +445,55 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -523,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,70 +515,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,7 +861,7 @@
   <dimension ref="B1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="B9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -900,44 +876,44 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -947,10 +923,10 @@
       <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
@@ -959,10 +935,10 @@
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -973,8 +949,8 @@
       <c r="C9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -985,10 +961,10 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="10"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
@@ -997,10 +973,10 @@
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
@@ -1009,64 +985,64 @@
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="11"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>36</v>
       </c>
     </row>
